--- a/branches/patch-5/ValueSet-VsPropertySurfaceForm.xlsx
+++ b/branches/patch-5/ValueSet-VsPropertySurfaceForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T12:36:33+00:00</t>
+    <t>2022-12-20T13:12:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
